--- a/EdufocalMergeListGenerator/Resources/boj_mail_merge_template.xlsx
+++ b/EdufocalMergeListGenerator/Resources/boj_mail_merge_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharlmagne Henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharlmagne Henry\RiderProjects\EdufocalMergeListGenerator\EdufocalMergeListGenerator\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF01F4FA-B506-4BE1-8D89-18CA4A9D620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508289A-3911-4E42-8FD9-4935B4EBEFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31095" yWindow="2295" windowWidth="21600" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -380,9 +382,9 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -399,13 +401,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
